--- a/biology/Médecine/Nerf_alvéolaire_inférieur/Nerf_alvéolaire_inférieur.xlsx
+++ b/biology/Médecine/Nerf_alvéolaire_inférieur/Nerf_alvéolaire_inférieur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nerf_alv%C3%A9olaire_inf%C3%A9rieur</t>
+          <t>Nerf_alvéolaire_inférieur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nerf alvéolaire inférieur (anciennement appelé nerf dentaire inférieur) est un nerf sensible issu du nerf mandibulaire (V3), lui-même issu du nerf trijumeau (V)[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf alvéolaire inférieur (anciennement appelé nerf dentaire inférieur) est un nerf sensible issu du nerf mandibulaire (V3), lui-même issu du nerf trijumeau (V),.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nerf_alv%C3%A9olaire_inf%C3%A9rieur</t>
+          <t>Nerf_alvéolaire_inférieur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine
-Le nerf alvéolaire inférieur naît en profondeur du muscle ptérygoïdien latéral depuis la partie postérieure du nerf mandibulaire[2].
-Trajet
-Il descend depuis son origine en longeant latéralement le muscle ptérygoïdien médial, passe entre la branche montante de la mandibule et le ligament sphéno-mandibulaire avant de pénétrer dans le canal mandibulaire via le foramen mandibulaire[2].
-Terminaison
-Le nerf alvéolaire inférieur s'anastomose avec le nerf lingual et avec le nerf hypoglosse[3].
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf alvéolaire inférieur naît en profondeur du muscle ptérygoïdien latéral depuis la partie postérieure du nerf mandibulaire.
 </t>
         </is>
       </c>
@@ -529,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nerf_alv%C3%A9olaire_inf%C3%A9rieur</t>
+          <t>Nerf_alvéolaire_inférieur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,14 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ramifications</t>
+          <t>Anatomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est à l'origine juste avant de pénétrer le canal mandibulaire, du nerf mylo-hyoïdien qui innervera le muscle mylo-hyoïdien, et le ventre antérieur du muscle digastrique [2],[3],[4]. Après cette branche, devenu purement sensitif, il entre dans le canal mandibulaire.
-Il participe au plexus dentaire inférieur, avec des terminaisons pour les molaires et prémolaires inférieures. Il est également à l'origine d'un rameau dit nerf incisif innervant une canine et deux dents incisives, des terminaisons gingivales[2],[3].
-Enfin il donne le nerf mentonnier émergeant de la mandibule par le foramen mental et se distribue par de nombreux rameaux à la lèvre inférieure et au menton.
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il descend depuis son origine en longeant latéralement le muscle ptérygoïdien médial, passe entre la branche montante de la mandibule et le ligament sphéno-mandibulaire avant de pénétrer dans le canal mandibulaire via le foramen mandibulaire.
 </t>
         </is>
       </c>
@@ -562,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nerf_alv%C3%A9olaire_inf%C3%A9rieur</t>
+          <t>Nerf_alvéolaire_inférieur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +594,84 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Anatomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Terminaison</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf alvéolaire inférieur s'anastomose avec le nerf lingual et avec le nerf hypoglosse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nerf_alvéolaire_inférieur</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_alv%C3%A9olaire_inf%C3%A9rieur</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ramifications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est à l'origine juste avant de pénétrer le canal mandibulaire, du nerf mylo-hyoïdien qui innervera le muscle mylo-hyoïdien, et le ventre antérieur du muscle digastrique . Après cette branche, devenu purement sensitif, il entre dans le canal mandibulaire.
+Il participe au plexus dentaire inférieur, avec des terminaisons pour les molaires et prémolaires inférieures. Il est également à l'origine d'un rameau dit nerf incisif innervant une canine et deux dents incisives, des terminaisons gingivales,.
+Enfin il donne le nerf mentonnier émergeant de la mandibule par le foramen mental et se distribue par de nombreux rameaux à la lèvre inférieure et au menton.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nerf_alvéolaire_inférieur</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_alv%C3%A9olaire_inf%C3%A9rieur</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Anesthésie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe plusieurs techniques pour anesthésier le nerf alvéolaire inférieur.
 </t>
